--- a/src/yarm/tests_data/test_df_input_options/tests.xlsx
+++ b/src/yarm/tests_data/test_df_input_options/tests.xlsx
@@ -46,6 +46,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -105,8 +106,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -133,21 +138,21 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
